--- a/Integration Services Project2/notes/train-meterreading.xlsx
+++ b/Integration Services Project2/notes/train-meterreading.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7611629-4858-4DCB-A775-4273F910F374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55390EAB-A7E7-41F4-A307-3737D3A5DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BAE74E9-EE05-495F-B1E6-ABC286639E98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2BAE74E9-EE05-495F-B1E6-ABC286639E98}"/>
   </bookViews>
   <sheets>
     <sheet name="train-meterreading" sheetId="1" r:id="rId1"/>
     <sheet name="train-number-4" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'train-number-4'!$C$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'train-number-4'!$C$1:$M$1659</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Wahyu Yoga Pratama:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 too big to store in db as float</t>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Wahyu Yoga Pratama:</t>
         </r>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 too big to store in db as float</t>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17068" uniqueCount="4172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17072" uniqueCount="4176">
   <si>
     <t>METERNAME</t>
   </si>
@@ -12598,6 +12598,18 @@
   </si>
   <si>
     <t>(too big to store in db as float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">942174017 + 465116822 </t>
+  </si>
+  <si>
+    <t>407290840 + 999999999.00</t>
+  </si>
+  <si>
+    <t>prev-value + current-delta</t>
+  </si>
+  <si>
+    <t>current-value + rollover</t>
   </si>
 </sst>
 </file>
@@ -12743,14 +12755,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -13094,7 +13106,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -13108,6 +13120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13465,8 +13478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B893BA2-AC2D-4957-8EDF-B652759E40B7}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14352,10 +14365,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756AE2EA-2D19-4792-A227-0FF07502B82B}">
-  <dimension ref="A1:M1659"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O1659"/>
   <sheetViews>
-    <sheetView topLeftCell="C1635" workbookViewId="0">
-      <selection activeCell="F546" sqref="F546"/>
+    <sheetView tabSelected="1" topLeftCell="F174" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14371,6 +14385,8 @@
     <col min="9" max="9" width="15.109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="19.109375" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18990,7 +19006,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>380201</v>
       </c>
@@ -19022,7 +19038,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380197</v>
       </c>
@@ -19054,7 +19070,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>380167</v>
       </c>
@@ -19086,7 +19102,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>380133</v>
       </c>
@@ -19118,7 +19134,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>380109</v>
       </c>
@@ -19158,8 +19174,12 @@
       <c r="M149">
         <v>816</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N149" s="5" t="e">
+        <f>MOD(F149,I149)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>380108</v>
       </c>
@@ -19200,7 +19220,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>380080</v>
       </c>
@@ -19241,7 +19261,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>380064</v>
       </c>
@@ -19282,7 +19302,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>380049</v>
       </c>
@@ -19323,7 +19343,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>380028</v>
       </c>
@@ -19364,7 +19384,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>380022</v>
       </c>
@@ -19405,7 +19425,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>380021</v>
       </c>
@@ -19446,7 +19466,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>379994</v>
       </c>
@@ -19487,7 +19507,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>379992</v>
       </c>
@@ -19528,7 +19548,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>379962</v>
       </c>
@@ -19569,7 +19589,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>379961</v>
       </c>
@@ -19610,7 +19630,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>379931</v>
       </c>
@@ -19692,7 +19712,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>379911</v>
       </c>
@@ -19774,7 +19794,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>379877</v>
       </c>
@@ -19856,7 +19876,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>379825</v>
       </c>
@@ -19938,7 +19958,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>379799</v>
       </c>
@@ -20020,7 +20040,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>379793</v>
       </c>
@@ -20102,7 +20122,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>379762</v>
       </c>
@@ -20184,7 +20204,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>379728</v>
       </c>
@@ -20266,7 +20286,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>379711</v>
       </c>
@@ -20307,7 +20327,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>379710</v>
       </c>
@@ -20348,7 +20368,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>379700</v>
       </c>
@@ -20389,7 +20409,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>379673</v>
       </c>
@@ -20430,7 +20450,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>379672</v>
       </c>
@@ -20471,7 +20491,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>379654</v>
       </c>
@@ -20512,7 +20532,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>379653</v>
       </c>
@@ -20553,7 +20573,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>379620</v>
       </c>
@@ -20594,7 +20614,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>379619</v>
       </c>
@@ -20635,7 +20655,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>379593</v>
       </c>
@@ -20675,8 +20695,14 @@
       <c r="M186">
         <v>794</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N186" t="s">
+        <v>4172</v>
+      </c>
+      <c r="O186" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>379574</v>
       </c>
@@ -20717,7 +20743,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>379573</v>
       </c>
@@ -20757,8 +20783,14 @@
       <c r="M188">
         <v>793</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N188" t="s">
+        <v>4174</v>
+      </c>
+      <c r="O188" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>379556</v>
       </c>
@@ -20799,7 +20831,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>379555</v>
       </c>
@@ -20840,7 +20872,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>379528</v>
       </c>
@@ -20881,7 +20913,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>379527</v>
       </c>
@@ -20922,7 +20954,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>379485</v>
       </c>
@@ -21004,7 +21036,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>379476</v>
       </c>
@@ -21086,7 +21118,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>379457</v>
       </c>
@@ -21168,7 +21200,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>379404</v>
       </c>
@@ -21250,7 +21282,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>379367</v>
       </c>
@@ -21332,7 +21364,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>379337</v>
       </c>
@@ -21414,7 +21446,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>379308</v>
       </c>
@@ -21496,7 +21528,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>379258</v>
       </c>
@@ -21619,7 +21651,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>379125</v>
       </c>
@@ -21701,7 +21733,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>379090</v>
       </c>
@@ -21783,7 +21815,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>379077</v>
       </c>
@@ -21865,7 +21897,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>379056</v>
       </c>
@@ -21947,7 +21979,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>379024</v>
       </c>
@@ -22029,7 +22061,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>378908</v>
       </c>
@@ -22111,7 +22143,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>378843</v>
       </c>
@@ -22193,7 +22225,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>378800</v>
       </c>
@@ -22275,7 +22307,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>378759</v>
       </c>
@@ -22357,7 +22389,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>378744</v>
       </c>
@@ -22439,7 +22471,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>378694</v>
       </c>
@@ -22521,7 +22553,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>378666</v>
       </c>
@@ -22603,7 +22635,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>378592</v>
       </c>
@@ -22685,7 +22717,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>378587</v>
       </c>
@@ -22767,7 +22799,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>378549</v>
       </c>
@@ -22849,7 +22881,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>378530</v>
       </c>
@@ -22931,7 +22963,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>378517</v>
       </c>
@@ -23013,7 +23045,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>378456</v>
       </c>
@@ -23095,7 +23127,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>378436</v>
       </c>
@@ -23177,7 +23209,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>378416</v>
       </c>
@@ -23259,7 +23291,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>378401</v>
       </c>
@@ -23341,7 +23373,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>378356</v>
       </c>
@@ -23423,7 +23455,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>378285</v>
       </c>
@@ -23505,7 +23537,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>378235</v>
       </c>
@@ -23587,7 +23619,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>378197</v>
       </c>
@@ -23669,7 +23701,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>378182</v>
       </c>
@@ -23751,7 +23783,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>378154</v>
       </c>
@@ -23833,7 +23865,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>378089</v>
       </c>
@@ -23915,7 +23947,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>378074</v>
       </c>
@@ -23997,7 +24029,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>378058</v>
       </c>
@@ -24120,7 +24152,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>378029</v>
       </c>
@@ -24202,7 +24234,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>378004</v>
       </c>
@@ -24284,7 +24316,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>377993</v>
       </c>
@@ -24366,7 +24398,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>377956</v>
       </c>
@@ -24448,7 +24480,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>377917</v>
       </c>
@@ -24571,7 +24603,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>377709</v>
       </c>
@@ -24653,7 +24685,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>377681</v>
       </c>
@@ -24735,7 +24767,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>377633</v>
       </c>
@@ -24858,7 +24890,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>377451</v>
       </c>
@@ -24940,7 +24972,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>377390</v>
       </c>
@@ -25022,7 +25054,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>377302</v>
       </c>
@@ -25104,7 +25136,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>377274</v>
       </c>
@@ -25186,7 +25218,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>377258</v>
       </c>
@@ -25268,7 +25300,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>377230</v>
       </c>
@@ -25350,7 +25382,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>377193</v>
       </c>
@@ -25432,7 +25464,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>377141</v>
       </c>
@@ -25514,7 +25546,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>377035</v>
       </c>
@@ -25637,7 +25669,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>376978</v>
       </c>
@@ -25719,7 +25751,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>376955</v>
       </c>
@@ -25760,7 +25792,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>376938</v>
       </c>
@@ -25842,7 +25874,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>376893</v>
       </c>
@@ -25924,7 +25956,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>376864</v>
       </c>
@@ -26006,7 +26038,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>376724</v>
       </c>
@@ -26088,7 +26120,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>376707</v>
       </c>
@@ -26170,7 +26202,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>376669</v>
       </c>
@@ -26252,7 +26284,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>376578</v>
       </c>
@@ -26334,7 +26366,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>376564</v>
       </c>
@@ -26416,7 +26448,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>376524</v>
       </c>
@@ -26498,7 +26530,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>376493</v>
       </c>
@@ -26580,7 +26612,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>376451</v>
       </c>
@@ -26662,7 +26694,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>376426</v>
       </c>
@@ -26744,7 +26776,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>376325</v>
       </c>
@@ -26826,7 +26858,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>376227</v>
       </c>
@@ -26908,7 +26940,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>376216</v>
       </c>
@@ -26990,7 +27022,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>376193</v>
       </c>
@@ -27072,7 +27104,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>376188</v>
       </c>
@@ -27154,7 +27186,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>376159</v>
       </c>
@@ -27236,7 +27268,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>376131</v>
       </c>
@@ -27318,7 +27350,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>376077</v>
       </c>
@@ -27400,7 +27432,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>376025</v>
       </c>
@@ -27523,7 +27555,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>375987</v>
       </c>
@@ -27605,7 +27637,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>375965</v>
       </c>
@@ -27687,7 +27719,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>375931</v>
       </c>
@@ -27769,7 +27801,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>375901</v>
       </c>
@@ -27851,7 +27883,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>375878</v>
       </c>
@@ -27933,7 +27965,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>375811</v>
       </c>
@@ -28015,7 +28047,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>375792</v>
       </c>
@@ -28097,7 +28129,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>375744</v>
       </c>
@@ -28179,7 +28211,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>375727</v>
       </c>
@@ -28261,7 +28293,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>375671</v>
       </c>
@@ -28343,7 +28375,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>375630</v>
       </c>
@@ -28425,7 +28457,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375593</v>
       </c>
@@ -28507,7 +28539,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>375566</v>
       </c>
@@ -28589,7 +28621,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>375547</v>
       </c>
@@ -28671,7 +28703,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>375514</v>
       </c>
@@ -28753,7 +28785,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>375481</v>
       </c>
@@ -28835,7 +28867,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>375473</v>
       </c>
@@ -28917,7 +28949,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>375435</v>
       </c>
@@ -28999,7 +29031,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>375406</v>
       </c>
@@ -29081,7 +29113,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>375353</v>
       </c>
@@ -29163,7 +29195,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>375334</v>
       </c>
@@ -29245,7 +29277,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>375248</v>
       </c>
@@ -29327,7 +29359,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>375201</v>
       </c>
@@ -29409,7 +29441,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>375178</v>
       </c>
@@ -29491,7 +29523,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>375145</v>
       </c>
@@ -29614,7 +29646,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>374993</v>
       </c>
@@ -29737,7 +29769,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>374931</v>
       </c>
@@ -29819,7 +29851,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>374888</v>
       </c>
@@ -29901,7 +29933,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>374866</v>
       </c>
@@ -29983,7 +30015,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>374808</v>
       </c>
@@ -30065,7 +30097,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>374773</v>
       </c>
@@ -30147,7 +30179,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>374753</v>
       </c>
@@ -30229,7 +30261,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>374718</v>
       </c>
@@ -30311,7 +30343,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>374674</v>
       </c>
@@ -30393,7 +30425,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>374627</v>
       </c>
@@ -30475,7 +30507,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>374586</v>
       </c>
@@ -30557,7 +30589,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>374534</v>
       </c>
@@ -30639,7 +30671,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>374512</v>
       </c>
@@ -30721,7 +30753,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>374476</v>
       </c>
@@ -30803,7 +30835,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>374455</v>
       </c>
@@ -30885,7 +30917,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>374433</v>
       </c>
@@ -30967,7 +30999,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>374405</v>
       </c>
@@ -31049,7 +31081,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>374348</v>
       </c>
@@ -31131,7 +31163,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>374333</v>
       </c>
@@ -31254,7 +31286,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>374281</v>
       </c>
@@ -31336,7 +31368,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>374265</v>
       </c>
@@ -31418,7 +31450,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>374238</v>
       </c>
@@ -31541,7 +31573,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>374203</v>
       </c>
@@ -31623,7 +31655,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>374153</v>
       </c>
@@ -31705,7 +31737,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>374130</v>
       </c>
@@ -31787,7 +31819,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>374107</v>
       </c>
@@ -31869,7 +31901,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>374056</v>
       </c>
@@ -31951,7 +31983,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>374030</v>
       </c>
@@ -32074,7 +32106,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>373972</v>
       </c>
@@ -32156,7 +32188,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>373945</v>
       </c>
@@ -32238,7 +32270,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>373924</v>
       </c>
@@ -32320,7 +32352,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>373898</v>
       </c>
@@ -32402,7 +32434,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>373862</v>
       </c>
@@ -32484,7 +32516,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>373831</v>
       </c>
@@ -32607,7 +32639,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>373782</v>
       </c>
@@ -32689,7 +32721,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>373748</v>
       </c>
@@ -32771,7 +32803,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>373725</v>
       </c>
@@ -32853,7 +32885,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>373684</v>
       </c>
@@ -32935,7 +32967,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>373653</v>
       </c>
@@ -33017,7 +33049,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>373643</v>
       </c>
@@ -33099,7 +33131,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>373607</v>
       </c>
@@ -33222,7 +33254,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>373523</v>
       </c>
@@ -33304,7 +33336,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>373484</v>
       </c>
@@ -33427,7 +33459,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>373418</v>
       </c>
@@ -33509,7 +33541,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>373392</v>
       </c>
@@ -33591,7 +33623,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>373323</v>
       </c>
@@ -33673,7 +33705,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>373277</v>
       </c>
@@ -33755,7 +33787,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>373263</v>
       </c>
@@ -33837,7 +33869,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>373247</v>
       </c>
@@ -33919,7 +33951,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>373196</v>
       </c>
@@ -34001,7 +34033,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>373161</v>
       </c>
@@ -34083,7 +34115,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>373109</v>
       </c>
@@ -34165,7 +34197,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>373060</v>
       </c>
@@ -34247,7 +34279,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>373036</v>
       </c>
@@ -34329,7 +34361,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>373008</v>
       </c>
@@ -34411,7 +34443,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>372971</v>
       </c>
@@ -34493,7 +34525,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>372946</v>
       </c>
@@ -34575,7 +34607,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>372898</v>
       </c>
@@ -34657,7 +34689,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>372839</v>
       </c>
@@ -34739,7 +34771,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>372815</v>
       </c>
@@ -34821,7 +34853,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>372788</v>
       </c>
@@ -34903,7 +34935,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>372751</v>
       </c>
@@ -34985,7 +35017,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>372738</v>
       </c>
@@ -35067,7 +35099,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>372716</v>
       </c>
@@ -35149,7 +35181,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>372658</v>
       </c>
@@ -35231,7 +35263,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>372632</v>
       </c>
@@ -35354,7 +35386,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>372575</v>
       </c>
@@ -35436,7 +35468,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>372482</v>
       </c>
@@ -35518,7 +35550,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>372461</v>
       </c>
@@ -35641,7 +35673,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>372420</v>
       </c>
@@ -35723,7 +35755,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>372331</v>
       </c>
@@ -35805,7 +35837,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>372300</v>
       </c>
@@ -35887,7 +35919,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>372256</v>
       </c>
@@ -35969,7 +36001,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>372235</v>
       </c>
@@ -36051,7 +36083,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>372212</v>
       </c>
@@ -36133,7 +36165,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>372192</v>
       </c>
@@ -36215,7 +36247,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>372159</v>
       </c>
@@ -36297,7 +36329,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>372140</v>
       </c>
@@ -36379,7 +36411,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>372056</v>
       </c>
@@ -36461,7 +36493,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>371985</v>
       </c>
@@ -36543,7 +36575,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>371966</v>
       </c>
@@ -36666,7 +36698,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>371735</v>
       </c>
@@ -36748,7 +36780,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>371709</v>
       </c>
@@ -36830,7 +36862,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>371639</v>
       </c>
@@ -36912,7 +36944,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>371605</v>
       </c>
@@ -36994,7 +37026,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>371537</v>
       </c>
@@ -37076,7 +37108,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>371461</v>
       </c>
@@ -37158,7 +37190,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>371414</v>
       </c>
@@ -37240,7 +37272,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>371396</v>
       </c>
@@ -37322,7 +37354,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>371379</v>
       </c>
@@ -37404,7 +37436,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>371364</v>
       </c>
@@ -37486,7 +37518,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>371344</v>
       </c>
@@ -37568,7 +37600,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>371321</v>
       </c>
@@ -37691,7 +37723,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>371231</v>
       </c>
@@ -37773,7 +37805,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>371204</v>
       </c>
@@ -37855,7 +37887,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>371141</v>
       </c>
@@ -37937,7 +37969,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>370957</v>
       </c>
@@ -38019,7 +38051,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>370903</v>
       </c>
@@ -38101,7 +38133,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>370768</v>
       </c>
@@ -38224,7 +38256,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>370724</v>
       </c>
@@ -38306,7 +38338,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>370625</v>
       </c>
@@ -38388,7 +38420,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>370586</v>
       </c>
@@ -38470,7 +38502,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>370559</v>
       </c>
@@ -38552,7 +38584,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>370524</v>
       </c>
@@ -38675,7 +38707,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>370450</v>
       </c>
@@ -38757,7 +38789,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>370399</v>
       </c>
@@ -38839,7 +38871,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>370392</v>
       </c>
@@ -38921,7 +38953,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>370353</v>
       </c>
@@ -39003,7 +39035,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>370324</v>
       </c>
@@ -39085,7 +39117,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>370306</v>
       </c>
@@ -39167,7 +39199,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>370285</v>
       </c>
@@ -39290,7 +39322,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>370223</v>
       </c>
@@ -39372,7 +39404,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>370187</v>
       </c>
@@ -39454,7 +39486,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>370171</v>
       </c>
@@ -39536,7 +39568,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>370145</v>
       </c>
@@ -39618,7 +39650,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>370116</v>
       </c>
@@ -39700,7 +39732,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>370099</v>
       </c>
@@ -39782,7 +39814,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>370080</v>
       </c>
@@ -39864,7 +39896,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>370063</v>
       </c>
@@ -39946,7 +39978,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>370021</v>
       </c>
@@ -40028,7 +40060,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>369948</v>
       </c>
@@ -40110,7 +40142,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>369864</v>
       </c>
@@ -40192,7 +40224,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>369822</v>
       </c>
@@ -40315,7 +40347,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>369765</v>
       </c>
@@ -40397,7 +40429,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>369712</v>
       </c>
@@ -40602,7 +40634,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>369328</v>
       </c>
@@ -40725,7 +40757,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>368080</v>
       </c>
@@ -40848,7 +40880,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>367730</v>
       </c>
@@ -40930,7 +40962,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>367674</v>
       </c>
@@ -41012,7 +41044,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>367661</v>
       </c>
@@ -41094,7 +41126,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>367620</v>
       </c>
@@ -41176,7 +41208,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>367597</v>
       </c>
@@ -41258,7 +41290,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>367583</v>
       </c>
@@ -41340,7 +41372,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>367551</v>
       </c>
@@ -41422,7 +41454,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>367520</v>
       </c>
@@ -41545,7 +41577,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>367473</v>
       </c>
@@ -41586,7 +41618,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>367458</v>
       </c>
@@ -41668,7 +41700,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>367423</v>
       </c>
@@ -41750,7 +41782,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>367401</v>
       </c>
@@ -41832,7 +41864,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>367340</v>
       </c>
@@ -41914,7 +41946,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>367312</v>
       </c>
@@ -41996,7 +42028,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>367216</v>
       </c>
@@ -42078,7 +42110,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>367192</v>
       </c>
@@ -42201,7 +42233,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>367100</v>
       </c>
@@ -42283,7 +42315,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>367075</v>
       </c>
@@ -42365,7 +42397,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>367013</v>
       </c>
@@ -42447,7 +42479,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>366794</v>
       </c>
@@ -42529,7 +42561,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>366640</v>
       </c>
@@ -42611,7 +42643,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>366603</v>
       </c>
@@ -42734,7 +42766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>366435</v>
       </c>
@@ -42816,7 +42848,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>366358</v>
       </c>
@@ -42898,7 +42930,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>366344</v>
       </c>
@@ -42980,7 +43012,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>366307</v>
       </c>
@@ -43021,7 +43053,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>366203</v>
       </c>
@@ -43103,7 +43135,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>366164</v>
       </c>
@@ -43185,7 +43217,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>366149</v>
       </c>
@@ -43308,7 +43340,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>366054</v>
       </c>
@@ -43390,7 +43422,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>366038</v>
       </c>
@@ -43472,7 +43504,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>366019</v>
       </c>
@@ -43554,7 +43586,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>365997</v>
       </c>
@@ -43636,7 +43668,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>365936</v>
       </c>
@@ -43718,7 +43750,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>365929</v>
       </c>
@@ -43800,7 +43832,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>365865</v>
       </c>
@@ -43882,7 +43914,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>365837</v>
       </c>
@@ -43964,7 +43996,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>365824</v>
       </c>
@@ -44087,7 +44119,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>365776</v>
       </c>
@@ -44169,7 +44201,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>365677</v>
       </c>
@@ -44251,7 +44283,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>365645</v>
       </c>
@@ -44333,7 +44365,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>365629</v>
       </c>
@@ -44456,7 +44488,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>365558</v>
       </c>
@@ -44538,7 +44570,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>365523</v>
       </c>
@@ -44620,7 +44652,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>365521</v>
       </c>
@@ -44702,7 +44734,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>365502</v>
       </c>
@@ -44784,7 +44816,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>365478</v>
       </c>
@@ -44866,7 +44898,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>365432</v>
       </c>
@@ -44989,7 +45021,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>365229</v>
       </c>
@@ -45071,7 +45103,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>365193</v>
       </c>
@@ -45194,7 +45226,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>365087</v>
       </c>
@@ -45276,7 +45308,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>365067</v>
       </c>
@@ -45358,7 +45390,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>365045</v>
       </c>
@@ -45440,7 +45472,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>365020</v>
       </c>
@@ -45522,7 +45554,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>364988</v>
       </c>
@@ -45604,7 +45636,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>364951</v>
       </c>
@@ -45686,7 +45718,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>364913</v>
       </c>
@@ -45768,7 +45800,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>364859</v>
       </c>
@@ -45850,7 +45882,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>364822</v>
       </c>
@@ -45932,7 +45964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>364796</v>
       </c>
@@ -46014,7 +46046,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>364733</v>
       </c>
@@ -46055,7 +46087,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>364725</v>
       </c>
@@ -46137,7 +46169,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>364698</v>
       </c>
@@ -46219,7 +46251,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>364662</v>
       </c>
@@ -46301,7 +46333,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>364635</v>
       </c>
@@ -46383,7 +46415,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>364599</v>
       </c>
@@ -46465,7 +46497,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>364548</v>
       </c>
@@ -46547,7 +46579,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>364520</v>
       </c>
@@ -46670,7 +46702,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>364450</v>
       </c>
@@ -46752,7 +46784,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>364409</v>
       </c>
@@ -46834,7 +46866,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>364371</v>
       </c>
@@ -46916,7 +46948,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>364266</v>
       </c>
@@ -46998,7 +47030,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>364254</v>
       </c>
@@ -47121,7 +47153,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>364054</v>
       </c>
@@ -47203,7 +47235,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>364033</v>
       </c>
@@ -47285,7 +47317,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>364003</v>
       </c>
@@ -47367,7 +47399,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>363969</v>
       </c>
@@ -47449,7 +47481,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>363931</v>
       </c>
@@ -47531,7 +47563,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>363916</v>
       </c>
@@ -47613,7 +47645,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>363827</v>
       </c>
@@ -47695,7 +47727,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>363783</v>
       </c>
@@ -47777,7 +47809,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>363743</v>
       </c>
@@ -47859,7 +47891,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>363701</v>
       </c>
@@ -47941,7 +47973,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>363648</v>
       </c>
@@ -48023,7 +48055,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>363616</v>
       </c>
@@ -48105,7 +48137,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>363548</v>
       </c>
@@ -48187,7 +48219,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>363546</v>
       </c>
@@ -48269,7 +48301,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>363522</v>
       </c>
@@ -48392,7 +48424,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>363480</v>
       </c>
@@ -48474,7 +48506,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>363459</v>
       </c>
@@ -48556,7 +48588,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>363435</v>
       </c>
@@ -48638,7 +48670,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>363408</v>
       </c>
@@ -48720,7 +48752,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>363348</v>
       </c>
@@ -48802,7 +48834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>363320</v>
       </c>
@@ -48884,7 +48916,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>363312</v>
       </c>
@@ -49007,7 +49039,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>363179</v>
       </c>
@@ -49089,7 +49121,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>363164</v>
       </c>
@@ -49171,7 +49203,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>363146</v>
       </c>
@@ -49253,7 +49285,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>363073</v>
       </c>
@@ -49376,7 +49408,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>362953</v>
       </c>
@@ -49458,7 +49490,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>362923</v>
       </c>
@@ -49540,7 +49572,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>362893</v>
       </c>
@@ -49622,7 +49654,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>362868</v>
       </c>
@@ -49704,7 +49736,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>362855</v>
       </c>
@@ -49786,7 +49818,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>362836</v>
       </c>
@@ -49868,7 +49900,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>362789</v>
       </c>
@@ -49950,7 +49982,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>362762</v>
       </c>
@@ -50032,7 +50064,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>362731</v>
       </c>
@@ -50114,7 +50146,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>362697</v>
       </c>
@@ -50196,7 +50228,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>362659</v>
       </c>
@@ -50278,7 +50310,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>362627</v>
       </c>
@@ -50360,7 +50392,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>362607</v>
       </c>
@@ -50442,7 +50474,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>362515</v>
       </c>
@@ -50565,7 +50597,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>362470</v>
       </c>
@@ -50647,7 +50679,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>362450</v>
       </c>
@@ -50729,7 +50761,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>362434</v>
       </c>
@@ -50811,7 +50843,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>362403</v>
       </c>
@@ -50934,7 +50966,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>362347</v>
       </c>
@@ -51016,7 +51048,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>362270</v>
       </c>
@@ -51098,7 +51130,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>362230</v>
       </c>
@@ -51180,7 +51212,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>362206</v>
       </c>
@@ -51262,7 +51294,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>362189</v>
       </c>
@@ -51344,7 +51376,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>362182</v>
       </c>
@@ -51426,7 +51458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>362151</v>
       </c>
@@ -51508,7 +51540,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>362122</v>
       </c>
@@ -51590,7 +51622,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>362112</v>
       </c>
@@ -51672,7 +51704,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>362075</v>
       </c>
@@ -51754,7 +51786,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>362060</v>
       </c>
@@ -51836,7 +51868,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>362026</v>
       </c>
@@ -51918,7 +51950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>361961</v>
       </c>
@@ -52082,7 +52114,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>361881</v>
       </c>
@@ -52123,7 +52155,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>361862</v>
       </c>
@@ -52205,7 +52237,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>361843</v>
       </c>
@@ -52287,7 +52319,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>361809</v>
       </c>
@@ -52369,7 +52401,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>361760</v>
       </c>
@@ -52492,7 +52524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>361731</v>
       </c>
@@ -52533,7 +52565,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>361678</v>
       </c>
@@ -52615,7 +52647,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>361662</v>
       </c>
@@ -52697,7 +52729,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>361585</v>
       </c>
@@ -52779,7 +52811,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>361550</v>
       </c>
@@ -52861,7 +52893,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>361461</v>
       </c>
@@ -52943,7 +52975,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>361420</v>
       </c>
@@ -53066,7 +53098,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>361258</v>
       </c>
@@ -53148,7 +53180,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>361232</v>
       </c>
@@ -53230,7 +53262,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>361210</v>
       </c>
@@ -53353,7 +53385,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>361137</v>
       </c>
@@ -53435,7 +53467,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>361097</v>
       </c>
@@ -53517,7 +53549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>361018</v>
       </c>
@@ -53599,7 +53631,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>360991</v>
       </c>
@@ -53681,7 +53713,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>360938</v>
       </c>
@@ -53763,7 +53795,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>360931</v>
       </c>
@@ -53845,7 +53877,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>360910</v>
       </c>
@@ -53927,7 +53959,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>360872</v>
       </c>
@@ -54009,7 +54041,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>360846</v>
       </c>
@@ -54132,7 +54164,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003">
         <v>360810</v>
       </c>
@@ -54214,7 +54246,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005">
         <v>360705</v>
       </c>
@@ -54296,7 +54328,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1007">
         <v>360646</v>
       </c>
@@ -54378,7 +54410,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009">
         <v>360578</v>
       </c>
@@ -54460,7 +54492,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011">
         <v>360558</v>
       </c>
@@ -54542,7 +54574,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1013">
         <v>360509</v>
       </c>
@@ -54624,7 +54656,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1015">
         <v>360468</v>
       </c>
@@ -54706,7 +54738,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1017">
         <v>360427</v>
       </c>
@@ -54788,7 +54820,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1019">
         <v>360394</v>
       </c>
@@ -54870,7 +54902,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="1021" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1021">
         <v>360363</v>
       </c>
@@ -54952,7 +54984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1023" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1023">
         <v>360268</v>
       </c>
@@ -55034,7 +55066,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="1025" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1025">
         <v>360228</v>
       </c>
@@ -55116,7 +55148,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="1027" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1027">
         <v>360171</v>
       </c>
@@ -55198,7 +55230,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="1029" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1029">
         <v>360141</v>
       </c>
@@ -55280,7 +55312,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1031" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1031">
         <v>360125</v>
       </c>
@@ -55362,7 +55394,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="1033" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1033">
         <v>360053</v>
       </c>
@@ -55444,7 +55476,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="1035" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1035">
         <v>360020</v>
       </c>
@@ -55526,7 +55558,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1037" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1037">
         <v>359987</v>
       </c>
@@ -55608,7 +55640,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1039" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1039">
         <v>359927</v>
       </c>
@@ -55690,7 +55722,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1041">
         <v>359908</v>
       </c>
@@ -55772,7 +55804,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1043">
         <v>359867</v>
       </c>
@@ -55854,7 +55886,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1045" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1045">
         <v>359847</v>
       </c>
@@ -55936,7 +55968,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1047" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1047">
         <v>359808</v>
       </c>
@@ -56018,7 +56050,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1049">
         <v>359647</v>
       </c>
@@ -56059,7 +56091,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1050">
         <v>359632</v>
       </c>
@@ -56141,7 +56173,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="1052" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1052">
         <v>359601</v>
       </c>
@@ -56223,7 +56255,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="1054" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1054">
         <v>359536</v>
       </c>
@@ -56305,7 +56337,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1056" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1056">
         <v>359516</v>
       </c>
@@ -56387,7 +56419,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1058">
         <v>359476</v>
       </c>
@@ -56469,7 +56501,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1060" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1060">
         <v>359456</v>
       </c>
@@ -56551,7 +56583,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1062" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1062">
         <v>359410</v>
       </c>
@@ -56674,7 +56706,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1065" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1065">
         <v>359350</v>
       </c>
@@ -56756,7 +56788,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1067" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1067">
         <v>359271</v>
       </c>
@@ -56838,7 +56870,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1069" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1069">
         <v>359250</v>
       </c>
@@ -56920,7 +56952,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="1071" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1071">
         <v>359212</v>
       </c>
@@ -57002,7 +57034,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1073">
         <v>359104</v>
       </c>
@@ -57084,7 +57116,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="1075" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1075">
         <v>359070</v>
       </c>
@@ -57166,7 +57198,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="1077" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1077">
         <v>359030</v>
       </c>
@@ -57248,7 +57280,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="1079" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1079">
         <v>359007</v>
       </c>
@@ -57330,7 +57362,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="1081" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1081">
         <v>358973</v>
       </c>
@@ -57412,7 +57444,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1083">
         <v>358947</v>
       </c>
@@ -57494,7 +57526,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1085" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1085">
         <v>358911</v>
       </c>
@@ -57576,7 +57608,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1087" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1087">
         <v>358870</v>
       </c>
@@ -57658,7 +57690,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1089" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1089">
         <v>358841</v>
       </c>
@@ -57740,7 +57772,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1091" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1091">
         <v>358819</v>
       </c>
@@ -57822,7 +57854,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1093" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1093">
         <v>358795</v>
       </c>
@@ -57904,7 +57936,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1095" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1095">
         <v>358767</v>
       </c>
@@ -57986,7 +58018,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="1097" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1097">
         <v>358759</v>
       </c>
@@ -58068,7 +58100,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1099" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1099">
         <v>358723</v>
       </c>
@@ -58150,7 +58182,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="1101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1101">
         <v>358688</v>
       </c>
@@ -58273,7 +58305,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1104">
         <v>358634</v>
       </c>
@@ -58396,7 +58428,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1107">
         <v>358539</v>
       </c>
@@ -58478,7 +58510,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="1109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1109">
         <v>358498</v>
       </c>
@@ -58560,7 +58592,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1111">
         <v>358469</v>
       </c>
@@ -58642,7 +58674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1113">
         <v>358452</v>
       </c>
@@ -58724,7 +58756,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="1115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1115">
         <v>358425</v>
       </c>
@@ -58806,7 +58838,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="1117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1117">
         <v>358381</v>
       </c>
@@ -58929,7 +58961,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1120">
         <v>358300</v>
       </c>
@@ -59011,7 +59043,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1122">
         <v>358262</v>
       </c>
@@ -59093,7 +59125,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1124">
         <v>358215</v>
       </c>
@@ -59175,7 +59207,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1126">
         <v>358187</v>
       </c>
@@ -59257,7 +59289,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1128">
         <v>358161</v>
       </c>
@@ -59339,7 +59371,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1130">
         <v>358128</v>
       </c>
@@ -59421,7 +59453,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="1132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1132">
         <v>358093</v>
       </c>
@@ -59503,7 +59535,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="1134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1134">
         <v>358063</v>
       </c>
@@ -59585,7 +59617,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="1136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1136">
         <v>358009</v>
       </c>
@@ -59667,7 +59699,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="1138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1138">
         <v>357978</v>
       </c>
@@ -59749,7 +59781,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="1140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1140">
         <v>357948</v>
       </c>
@@ -59831,7 +59863,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1142">
         <v>357911</v>
       </c>
@@ -59913,7 +59945,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="1144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1144">
         <v>357834</v>
       </c>
@@ -59995,7 +60027,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1146">
         <v>357807</v>
       </c>
@@ -60077,7 +60109,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="1148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1148">
         <v>357723</v>
       </c>
@@ -60159,7 +60191,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="1150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1150">
         <v>357667</v>
       </c>
@@ -60241,7 +60273,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="1152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1152">
         <v>357632</v>
       </c>
@@ -60364,7 +60396,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="1155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1155">
         <v>357535</v>
       </c>
@@ -60446,7 +60478,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="1157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1157">
         <v>357498</v>
       </c>
@@ -60528,7 +60560,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1159">
         <v>357467</v>
       </c>
@@ -60610,7 +60642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="1161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1161">
         <v>357423</v>
       </c>
@@ -60692,7 +60724,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="1163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1163">
         <v>357356</v>
       </c>
@@ -60774,7 +60806,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1165">
         <v>357334</v>
       </c>
@@ -60856,7 +60888,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1167">
         <v>357281</v>
       </c>
@@ -60938,7 +60970,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="1169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1169">
         <v>357258</v>
       </c>
@@ -61020,7 +61052,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="1171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1171">
         <v>357238</v>
       </c>
@@ -61102,7 +61134,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="1173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1173">
         <v>357184</v>
       </c>
@@ -61184,7 +61216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="1175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1175">
         <v>357119</v>
       </c>
@@ -61266,7 +61298,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="1177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1177">
         <v>357105</v>
       </c>
@@ -61348,7 +61380,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1179">
         <v>357061</v>
       </c>
@@ -61430,7 +61462,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1181">
         <v>357039</v>
       </c>
@@ -61512,7 +61544,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1183">
         <v>356985</v>
       </c>
@@ -61594,7 +61626,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1185">
         <v>356949</v>
       </c>
@@ -61676,7 +61708,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1187">
         <v>356906</v>
       </c>
@@ -61758,7 +61790,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="1189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1189">
         <v>356875</v>
       </c>
@@ -61840,7 +61872,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="1191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1191">
         <v>356844</v>
       </c>
@@ -61922,7 +61954,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1193">
         <v>356794</v>
       </c>
@@ -62004,7 +62036,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="1195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1195">
         <v>356649</v>
       </c>
@@ -62086,7 +62118,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="1197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1197">
         <v>356627</v>
       </c>
@@ -62168,7 +62200,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="1199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1199">
         <v>356532</v>
       </c>
@@ -62250,7 +62282,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1201">
         <v>356490</v>
       </c>
@@ -62373,7 +62405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1204">
         <v>356400</v>
       </c>
@@ -62455,7 +62487,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="1206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1206">
         <v>356366</v>
       </c>
@@ -62578,7 +62610,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="1209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1209">
         <v>356254</v>
       </c>
@@ -62660,7 +62692,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1211">
         <v>356231</v>
       </c>
@@ -62742,7 +62774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="1213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1213">
         <v>356192</v>
       </c>
@@ -62824,7 +62856,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="1215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1215">
         <v>356144</v>
       </c>
@@ -62906,7 +62938,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="1217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1217">
         <v>356112</v>
       </c>
@@ -62988,7 +63020,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1219">
         <v>356080</v>
       </c>
@@ -63070,7 +63102,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1221">
         <v>356062</v>
       </c>
@@ -63152,7 +63184,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="1223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1223">
         <v>355999</v>
       </c>
@@ -63234,7 +63266,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="1225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1225">
         <v>355960</v>
       </c>
@@ -63316,7 +63348,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1227">
         <v>355921</v>
       </c>
@@ -63398,7 +63430,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="1229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1229">
         <v>355858</v>
       </c>
@@ -63480,7 +63512,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="1231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1231">
         <v>355830</v>
       </c>
@@ -63562,7 +63594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="1233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1233">
         <v>355799</v>
       </c>
@@ -63644,7 +63676,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1235">
         <v>355763</v>
       </c>
@@ -63726,7 +63758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1237">
         <v>355702</v>
       </c>
@@ -63808,7 +63840,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="1239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1239">
         <v>355670</v>
       </c>
@@ -63890,7 +63922,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="1241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1241">
         <v>355606</v>
       </c>
@@ -63972,7 +64004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1243">
         <v>355569</v>
       </c>
@@ -64054,7 +64086,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="1245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1245">
         <v>355523</v>
       </c>
@@ -64136,7 +64168,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="1247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1247">
         <v>355446</v>
       </c>
@@ -64218,7 +64250,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="1249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1249">
         <v>355417</v>
       </c>
@@ -64300,7 +64332,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1251">
         <v>355398</v>
       </c>
@@ -64382,7 +64414,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1253">
         <v>355367</v>
       </c>
@@ -64464,7 +64496,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1255">
         <v>355344</v>
       </c>
@@ -64546,7 +64578,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1257">
         <v>355330</v>
       </c>
@@ -64628,7 +64660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="1259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1259">
         <v>355285</v>
       </c>
@@ -64669,7 +64701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1260">
         <v>355227</v>
       </c>
@@ -64751,7 +64783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1262">
         <v>355207</v>
       </c>
@@ -64833,7 +64865,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1264">
         <v>355179</v>
       </c>
@@ -64915,7 +64947,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="1266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1266">
         <v>355140</v>
       </c>
@@ -64997,7 +65029,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1268">
         <v>355088</v>
       </c>
@@ -65079,7 +65111,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="1270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1270">
         <v>355019</v>
       </c>
@@ -65161,7 +65193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="1272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1272">
         <v>354973</v>
       </c>
@@ -65243,7 +65275,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1274">
         <v>354925</v>
       </c>
@@ -65325,7 +65357,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="1276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1276">
         <v>354885</v>
       </c>
@@ -65407,7 +65439,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1278">
         <v>354838</v>
       </c>
@@ -65489,7 +65521,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="1280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1280">
         <v>354763</v>
       </c>
@@ -65571,7 +65603,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="1282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1282">
         <v>354732</v>
       </c>
@@ -65653,7 +65685,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1284">
         <v>354714</v>
       </c>
@@ -65735,7 +65767,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="1286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1286">
         <v>354684</v>
       </c>
@@ -65817,7 +65849,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="1288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1288">
         <v>354667</v>
       </c>
@@ -65899,7 +65931,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="1290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1290">
         <v>354620</v>
       </c>
@@ -65981,7 +66013,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1292">
         <v>354588</v>
       </c>
@@ -66063,7 +66095,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1294">
         <v>354519</v>
       </c>
@@ -66145,7 +66177,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1296">
         <v>354504</v>
       </c>
@@ -66227,7 +66259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1298">
         <v>354473</v>
       </c>
@@ -66309,7 +66341,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="1300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1300">
         <v>354452</v>
       </c>
@@ -66391,7 +66423,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1302">
         <v>354438</v>
       </c>
@@ -66473,7 +66505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="1304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1304">
         <v>354340</v>
       </c>
@@ -66555,7 +66587,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="1306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1306">
         <v>354271</v>
       </c>
@@ -66637,7 +66669,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1308">
         <v>354207</v>
       </c>
@@ -66719,7 +66751,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1310">
         <v>353924</v>
       </c>
@@ -66801,7 +66833,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1312">
         <v>353900</v>
       </c>
@@ -66883,7 +66915,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1314" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1314">
         <v>353881</v>
       </c>
@@ -66965,7 +66997,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1316">
         <v>353854</v>
       </c>
@@ -67047,7 +67079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1318">
         <v>353797</v>
       </c>
@@ -67129,7 +67161,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1320">
         <v>353771</v>
       </c>
@@ -67211,7 +67243,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1322" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1322">
         <v>353649</v>
       </c>
@@ -67293,7 +67325,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="1324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1324" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1324">
         <v>353621</v>
       </c>
@@ -67375,7 +67407,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="1326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1326" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1326">
         <v>353598</v>
       </c>
@@ -67457,7 +67489,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="1328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1328" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1328">
         <v>353573</v>
       </c>
@@ -67539,7 +67571,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="1330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1330">
         <v>353555</v>
       </c>
@@ -67621,7 +67653,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="1332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1332">
         <v>353537</v>
       </c>
@@ -67703,7 +67735,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1334">
         <v>353466</v>
       </c>
@@ -67785,7 +67817,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1336">
         <v>353437</v>
       </c>
@@ -67867,7 +67899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="1338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1338">
         <v>353418</v>
       </c>
@@ -67949,7 +67981,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="1340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1340">
         <v>353363</v>
       </c>
@@ -68031,7 +68063,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="1342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1342">
         <v>353295</v>
       </c>
@@ -68113,7 +68145,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="1344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1344">
         <v>353254</v>
       </c>
@@ -68195,7 +68227,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="1346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1346">
         <v>353216</v>
       </c>
@@ -68277,7 +68309,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="1348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1348">
         <v>353198</v>
       </c>
@@ -68359,7 +68391,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1350">
         <v>353177</v>
       </c>
@@ -68441,7 +68473,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1352">
         <v>353150</v>
       </c>
@@ -68523,7 +68555,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="1354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1354">
         <v>353125</v>
       </c>
@@ -68605,7 +68637,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="1356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1356">
         <v>353100</v>
       </c>
@@ -68687,7 +68719,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1358">
         <v>353066</v>
       </c>
@@ -68769,7 +68801,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="1360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1360">
         <v>353024</v>
       </c>
@@ -68851,7 +68883,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="1362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1362">
         <v>352984</v>
       </c>
@@ -68933,7 +68965,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="1364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1364">
         <v>352967</v>
       </c>
@@ -69015,7 +69047,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1366">
         <v>352937</v>
       </c>
@@ -69097,7 +69129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1368">
         <v>352911</v>
       </c>
@@ -69179,7 +69211,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1370">
         <v>352872</v>
       </c>
@@ -69261,7 +69293,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1372">
         <v>352840</v>
       </c>
@@ -69343,7 +69375,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1374">
         <v>352802</v>
       </c>
@@ -69425,7 +69457,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="1376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1376">
         <v>352705</v>
       </c>
@@ -69507,7 +69539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="1378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1378">
         <v>352678</v>
       </c>
@@ -69589,7 +69621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1380">
         <v>352642</v>
       </c>
@@ -69671,7 +69703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1382">
         <v>352622</v>
       </c>
@@ -69753,7 +69785,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1384">
         <v>352583</v>
       </c>
@@ -69835,7 +69867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="1386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1386">
         <v>352544</v>
       </c>
@@ -69917,7 +69949,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="1388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1388">
         <v>352519</v>
       </c>
@@ -69999,7 +70031,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1390">
         <v>352478</v>
       </c>
@@ -70081,7 +70113,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1392">
         <v>352443</v>
       </c>
@@ -70163,7 +70195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="1394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1394">
         <v>352389</v>
       </c>
@@ -70245,7 +70277,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="1396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1396">
         <v>352325</v>
       </c>
@@ -70327,7 +70359,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1398">
         <v>352302</v>
       </c>
@@ -70409,7 +70441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="1400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1400">
         <v>352281</v>
       </c>
@@ -70491,7 +70523,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="1402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1402">
         <v>352247</v>
       </c>
@@ -70573,7 +70605,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1404">
         <v>352195</v>
       </c>
@@ -70655,7 +70687,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="1406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1406" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1406">
         <v>352161</v>
       </c>
@@ -70737,7 +70769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1408" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1408">
         <v>352139</v>
       </c>
@@ -70819,7 +70851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="1410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1410">
         <v>352097</v>
       </c>
@@ -70901,7 +70933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="1412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1412">
         <v>352037</v>
       </c>
@@ -71024,7 +71056,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="1415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1415">
         <v>351991</v>
       </c>
@@ -71106,7 +71138,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1417">
         <v>351987</v>
       </c>
@@ -71188,7 +71220,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1419">
         <v>351941</v>
       </c>
@@ -71270,7 +71302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1421">
         <v>351902</v>
       </c>
@@ -71352,7 +71384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1423">
         <v>351882</v>
       </c>
@@ -71434,7 +71466,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1425">
         <v>351842</v>
       </c>
@@ -71516,7 +71548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="1427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1427" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1427">
         <v>351814</v>
       </c>
@@ -71598,7 +71630,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1429">
         <v>351812</v>
       </c>
@@ -71680,7 +71712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1431" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1431">
         <v>351783</v>
       </c>
@@ -71762,7 +71794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="1433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1433" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1433">
         <v>351759</v>
       </c>
@@ -71844,7 +71876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="1435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1435">
         <v>351729</v>
       </c>
@@ -71926,7 +71958,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="1437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1437" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1437">
         <v>351690</v>
       </c>
@@ -72049,7 +72081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="1440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1440">
         <v>351669</v>
       </c>
@@ -72090,7 +72122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1441">
         <v>351621</v>
       </c>
@@ -72172,7 +72204,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="1443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1443">
         <v>351595</v>
       </c>
@@ -72254,7 +72286,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="1445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1445">
         <v>351568</v>
       </c>
@@ -72336,7 +72368,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="1447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1447">
         <v>351527</v>
       </c>
@@ -72418,7 +72450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1449">
         <v>351519</v>
       </c>
@@ -72500,7 +72532,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="1451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1451">
         <v>351466</v>
       </c>
@@ -72582,7 +72614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1453">
         <v>351434</v>
       </c>
@@ -72664,7 +72696,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1455">
         <v>351313</v>
       </c>
@@ -72746,7 +72778,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="1457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1457">
         <v>351280</v>
       </c>
@@ -72828,7 +72860,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="1459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1459">
         <v>351221</v>
       </c>
@@ -72910,7 +72942,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="1461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1461">
         <v>351178</v>
       </c>
@@ -72992,7 +73024,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1463" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1463">
         <v>351099</v>
       </c>
@@ -73074,7 +73106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="1465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1465" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1465">
         <v>351068</v>
       </c>
@@ -73156,7 +73188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1467">
         <v>351027</v>
       </c>
@@ -73238,7 +73270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1469">
         <v>351021</v>
       </c>
@@ -73320,7 +73352,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1471">
         <v>350967</v>
       </c>
@@ -73402,7 +73434,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="1473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1473">
         <v>350932</v>
       </c>
@@ -73484,7 +73516,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="1475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1475">
         <v>350893</v>
       </c>
@@ -73566,7 +73598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1477">
         <v>350851</v>
       </c>
@@ -73648,7 +73680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1479" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1479">
         <v>350807</v>
       </c>
@@ -73730,7 +73762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1481" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1481">
         <v>350780</v>
       </c>
@@ -73812,7 +73844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1483" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1483">
         <v>350743</v>
       </c>
@@ -73894,7 +73926,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1485" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1485">
         <v>350705</v>
       </c>
@@ -73976,7 +74008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1487">
         <v>350671</v>
       </c>
@@ -74058,7 +74090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1489">
         <v>350647</v>
       </c>
@@ -74140,7 +74172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1491">
         <v>350620</v>
       </c>
@@ -74222,7 +74254,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1493">
         <v>350607</v>
       </c>
@@ -74304,7 +74336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1495">
         <v>350558</v>
       </c>
@@ -74386,7 +74418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1497">
         <v>350536</v>
       </c>
@@ -74468,7 +74500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1499">
         <v>350492</v>
       </c>
@@ -74550,7 +74582,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1501">
         <v>350463</v>
       </c>
@@ -74632,7 +74664,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1503">
         <v>350393</v>
       </c>
@@ -74714,7 +74746,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1505" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1505">
         <v>350332</v>
       </c>
@@ -74796,7 +74828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1507">
         <v>350294</v>
       </c>
@@ -74878,7 +74910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1509" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1509">
         <v>350266</v>
       </c>
@@ -74960,7 +74992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1511" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1511">
         <v>350217</v>
       </c>
@@ -75042,7 +75074,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1513">
         <v>350183</v>
       </c>
@@ -75124,7 +75156,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1515" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1515">
         <v>350158</v>
       </c>
@@ -75206,7 +75238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1517" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1517">
         <v>350057</v>
       </c>
@@ -75288,7 +75320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1519" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1519">
         <v>350008</v>
       </c>
@@ -75370,7 +75402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1521" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1521">
         <v>349974</v>
       </c>
@@ -75452,7 +75484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1523" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1523">
         <v>349907</v>
       </c>
@@ -75534,7 +75566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1525" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1525">
         <v>349873</v>
       </c>
@@ -75616,7 +75648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1527" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1527">
         <v>349833</v>
       </c>
@@ -75698,7 +75730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1529" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1529">
         <v>349784</v>
       </c>
@@ -75780,7 +75812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1531" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1531">
         <v>349766</v>
       </c>
@@ -75862,7 +75894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1533" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1533">
         <v>349764</v>
       </c>
@@ -75944,7 +75976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1535" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1535">
         <v>349732</v>
       </c>
@@ -76026,7 +76058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1537" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1537">
         <v>349715</v>
       </c>
@@ -76108,7 +76140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1539" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1539">
         <v>349634</v>
       </c>
@@ -76190,7 +76222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1541" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1541">
         <v>349609</v>
       </c>
@@ -76272,7 +76304,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1543" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1543">
         <v>349555</v>
       </c>
@@ -76354,7 +76386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1545" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1545">
         <v>349497</v>
       </c>
@@ -76436,7 +76468,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1547" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1547">
         <v>349468</v>
       </c>
@@ -76518,7 +76550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1549" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1549">
         <v>349446</v>
       </c>
@@ -76600,7 +76632,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1551" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1551">
         <v>349393</v>
       </c>
@@ -76682,7 +76714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1553" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1553">
         <v>349363</v>
       </c>
@@ -76764,7 +76796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1555" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1555">
         <v>349341</v>
       </c>
@@ -76846,7 +76878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1557" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1557">
         <v>349303</v>
       </c>
@@ -76928,7 +76960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1559" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1559">
         <v>349247</v>
       </c>
@@ -77010,7 +77042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1561" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1561">
         <v>349209</v>
       </c>
@@ -77092,7 +77124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1563" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1563">
         <v>349162</v>
       </c>
@@ -77174,7 +77206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1565" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1565">
         <v>349122</v>
       </c>
@@ -77256,7 +77288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1567" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1567">
         <v>349104</v>
       </c>
@@ -77297,7 +77329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1568" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1568">
         <v>349088</v>
       </c>
@@ -77379,7 +77411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1570" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1570">
         <v>349055</v>
       </c>
@@ -77461,7 +77493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1572" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1572">
         <v>349013</v>
       </c>
@@ -77543,7 +77575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1574" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1574">
         <v>348989</v>
       </c>
@@ -77625,7 +77657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1576" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1576">
         <v>348966</v>
       </c>
@@ -77707,7 +77739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1578" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1578">
         <v>348925</v>
       </c>
@@ -77789,7 +77821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1580" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1580">
         <v>348828</v>
       </c>
@@ -77871,7 +77903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1582" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1582">
         <v>348807</v>
       </c>
@@ -77953,7 +77985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1584" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1584">
         <v>348777</v>
       </c>
@@ -78035,7 +78067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1586" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1586">
         <v>348752</v>
       </c>
@@ -78117,7 +78149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1588" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1588">
         <v>348738</v>
       </c>
@@ -78158,7 +78190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1589" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1589">
         <v>348714</v>
       </c>
@@ -78281,7 +78313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1592" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1592">
         <v>348701</v>
       </c>
@@ -81028,7 +81060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1659" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1659">
         <v>328296</v>
       </c>
@@ -81070,7 +81102,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:M1" xr:uid="{756AE2EA-2D19-4792-A227-0FF07502B82B}"/>
+  <autoFilter ref="C1:M1659" xr:uid="{756AE2EA-2D19-4792-A227-0FF07502B82B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TRAIN /107D/MDKM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
